--- a/data/epsp/demo/2x(4+1).xlsx
+++ b/data/epsp/demo/2x(4+1).xlsx
@@ -19,7 +19,7 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Start|0</t>
+    <t>Start|1</t>
   </si>
   <si>
     <t>Tank1|4</t>
@@ -87,13 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -415,12 +412,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -456,10 +453,10 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -471,15 +468,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -496,10 +493,10 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -516,10 +513,10 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -531,15 +528,15 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -556,10 +553,10 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
